--- a/tvstore/tvstore.xlsx
+++ b/tvstore/tvstore.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -54,13 +54,16 @@
     <t>full featured</t>
   </si>
   <si>
-    <t>crapy</t>
-  </si>
-  <si>
     <t>overpriced</t>
   </si>
   <si>
     <t>best buy</t>
+  </si>
+  <si>
+    <t>crappy</t>
+  </si>
+  <si>
+    <t>seller</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>900000</v>
@@ -451,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>200000</v>
@@ -462,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>30000</v>
@@ -501,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -509,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -517,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +555,7 @@
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -573,6 +576,9 @@
       </c>
       <c r="G1" t="s">
         <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
